--- a/stats/bryum/month_ETR_stats_X4.xlsx
+++ b/stats/bryum/month_ETR_stats_X4.xlsx
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>18.616935483871</v>
+        <v>44.3284717741936</v>
       </c>
       <c r="D11" t="n">
-        <v>104.1</v>
+        <v>247.968</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8362903225806</v>
+        <v>69.0645040322581</v>
       </c>
       <c r="D12" t="n">
-        <v>148.2</v>
+        <v>352.858</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241517857142858</v>
+        <v>0.0620163690476191</v>
       </c>
       <c r="D13" t="n">
-        <v>25.8</v>
+        <v>10.509</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>23.8854838709677</v>
+        <v>56.872069892473</v>
       </c>
       <c r="D15" t="n">
-        <v>152.5</v>
+        <v>363.086</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>7.24301075268827</v>
+        <v>17.2449986559141</v>
       </c>
       <c r="D16" t="n">
-        <v>160.3</v>
+        <v>381.696</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>

--- a/stats/bryum/month_ETR_stats_X4.xlsx
+++ b/stats/bryum/month_ETR_stats_X4.xlsx
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3284717741936</v>
+        <v>18.616935483871</v>
       </c>
       <c r="D11" t="n">
-        <v>247.968</v>
+        <v>104.1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>69.0645040322581</v>
+        <v>29.8362903225806</v>
       </c>
       <c r="D12" t="n">
-        <v>352.858</v>
+        <v>148.2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0620163690476191</v>
+        <v>0.241517857142858</v>
       </c>
       <c r="D13" t="n">
-        <v>10.509</v>
+        <v>25.8</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>56.872069892473</v>
+        <v>23.8854838709677</v>
       </c>
       <c r="D15" t="n">
-        <v>363.086</v>
+        <v>152.5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>17.2449986559141</v>
+        <v>7.24301075268827</v>
       </c>
       <c r="D16" t="n">
-        <v>381.696</v>
+        <v>160.3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>

--- a/stats/bryum/month_ETR_stats_X4.xlsx
+++ b/stats/bryum/month_ETR_stats_X4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">min_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_ETR</t>
   </si>
 </sst>
 </file>
@@ -374,6 +377,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -391,6 +397,9 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -408,6 +417,9 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>22.3629700097761</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -425,6 +437,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>24.1070977083343</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -442,6 +457,9 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>2.70143560365249</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -459,6 +477,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -476,6 +497,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>27.1036868139497</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -493,6 +517,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>25.7633956084017</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -510,6 +537,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>7.4336205941199</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -527,6 +557,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -544,6 +577,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>22.8897305934162</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -561,6 +597,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>30.1022447923085</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -578,6 +617,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>1.55989780120439</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -595,6 +637,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -612,6 +657,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>32.1993956629253</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -629,6 +677,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>22.7342285164783</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -644,6 +695,9 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stats/bryum/month_ETR_stats_X4.xlsx
+++ b/stats/bryum/month_ETR_stats_X4.xlsx
@@ -1,43 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/bryum/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_60C6943C5DFFAB3B31411069C2A961DCE3F4F1BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4D86DD-B754-6A48-9119-330BCA052562}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13120" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Month</t>
+    <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_ETR</t>
+    <t>mean_ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">max_ETR</t>
+    <t>max_ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">min_ETR</t>
+    <t>min_ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">sd_ETR</t>
+    <t>sd_ETR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,6 +80,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -354,14 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,328 +399,328 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
-        <v>21.6375</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>21.637499999999999</v>
+      </c>
+      <c r="D3">
         <v>87.2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22.3629700097761</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>22.362970009776099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>31.2979865771812</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>31.297986577181199</v>
+      </c>
+      <c r="D4">
         <v>126.7</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24.1070977083343</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>24.107097708334301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.772126436781612</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.77212643678161197</v>
+      </c>
+      <c r="D5">
         <v>27.2</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.70143560365249</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2.7014356036524898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>14.8896505376345</v>
       </c>
-      <c r="D7" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>27.1036868139497</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2021</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>29.9791666666667</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>141</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>25.7633956084017</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>25.763395608401702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.15178571428572</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>105.4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.4336205941199</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>7.4336205941199003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>18.616935483871</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>104.1</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>22.8897305934162</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2022</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>29.8362903225806</v>
-      </c>
-      <c r="D12" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="C12">
+        <v>29.836290322580599</v>
+      </c>
+      <c r="D12">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>30.1022447923085</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.241517857142858</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.24151785714285801</v>
+      </c>
+      <c r="D13">
         <v>25.8</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1.55989780120439</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2022</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>23.8854838709677</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>152.5</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>32.1993956629253</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>32.199395662925298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2023</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>7.24301075268827</v>
-      </c>
-      <c r="D16" t="n">
-        <v>160.3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="C16">
+        <v>7.2430107526882699</v>
+      </c>
+      <c r="D16">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>22.7342285164783</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2023</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>